--- a/work/Erweiterung_NGM-PROD/GeolAssetsCatalogues_V1_Erweiterung_NGMPROD.xlsx
+++ b/work/Erweiterung_NGM-PROD/GeolAssetsCatalogues_V1_Erweiterung_NGMPROD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="891"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="891"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="718">
   <si>
     <t>true</t>
   </si>
@@ -2031,14 +2031,6 @@
 [1]</t>
   </si>
   <si>
-    <t>Actual status
-[0..1]</t>
-  </si>
-  <si>
-    <t>Target status
-[0..1]</t>
-  </si>
-  <si>
     <t>Status updated
 [1]</t>
   </si>
@@ -2059,9 +2051,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>direct input data</t>
-  </si>
-  <si>
     <t>georeferenced</t>
   </si>
   <si>
@@ -2080,9 +2069,6 @@
     <t>geological interpretation</t>
   </si>
   <si>
-    <t>georeferenced digitised</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -2098,12 +2084,6 @@
     <t xml:space="preserve">auxiliary modelling horizon </t>
   </si>
   <si>
-    <t>georeferenced digitised attributed</t>
-  </si>
-  <si>
-    <t>in process</t>
-  </si>
-  <si>
     <t>e.g. GA25_162_Travers</t>
   </si>
   <si>
@@ -2116,16 +2096,10 @@
     <t>digitised</t>
   </si>
   <si>
-    <t>Scale</t>
-  </si>
-  <si>
     <t>1:200000</t>
   </si>
   <si>
     <t>none</t>
-  </si>
-  <si>
-    <t>digitised attributed</t>
   </si>
   <si>
     <t>1:500000</t>
@@ -2240,6 +2214,20 @@
     <t>Depth
 [0..1]
 Constraint (kind &gt; boreholeProfile)</t>
+  </si>
+  <si>
+    <t>Target status
+[0..*]</t>
+  </si>
+  <si>
+    <t>Actual status
+[0..*</t>
+  </si>
+  <si>
+    <t>attributed</t>
+  </si>
+  <si>
+    <t>input data</t>
   </si>
 </sst>
 </file>
@@ -2663,34 +2651,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -2720,6 +2680,26 @@
       <bottom style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2844,19 +2824,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2920,7 +2894,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2947,6 +2921,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3040,8 +3020,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5061056" y="687299"/>
-          <a:ext cx="9606110" cy="8489945"/>
+          <a:off x="5235868" y="678334"/>
+          <a:ext cx="9897463" cy="8358463"/>
           <a:chOff x="5157107" y="580571"/>
           <a:chExt cx="9534071" cy="8190593"/>
         </a:xfrm>
@@ -3651,39 +3631,39 @@
   </sheetPr>
   <dimension ref="A2:Y116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" topLeftCell="I1" zoomScaleNormal="100" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.54296875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5234375" defaultRowHeight="16.8" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="2" width="23.36328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.3671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.7890625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.26171875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.62890625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5234375" style="9" customWidth="1"/>
     <col min="9" max="9" width="12" style="9" customWidth="1"/>
-    <col min="10" max="11" width="11.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.1015625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1015625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.734375" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="13.36328125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="12.81640625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="14.54296875" style="9" customWidth="1"/>
-    <col min="22" max="22" width="16.7265625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="22.7265625" style="9" customWidth="1"/>
-    <col min="24" max="24" width="10.36328125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="12.36328125" style="9" customWidth="1"/>
-    <col min="26" max="40" width="16.08984375" style="11" customWidth="1"/>
-    <col min="41" max="16384" width="2.54296875" style="11"/>
+    <col min="15" max="15" width="10.15625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.1015625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="13.3671875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="12.7890625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="13.62890625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="14.5234375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="16.734375" style="9" customWidth="1"/>
+    <col min="23" max="23" width="22.734375" style="9" customWidth="1"/>
+    <col min="24" max="24" width="10.3671875" style="9" customWidth="1"/>
+    <col min="25" max="25" width="12.3671875" style="9" customWidth="1"/>
+    <col min="26" max="40" width="16.1015625" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="2.5234375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="L2" s="8"/>
@@ -3697,7 +3677,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="L3" s="8"/>
@@ -3711,7 +3691,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="L4" s="8"/>
@@ -3723,7 +3703,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="L5" s="8"/>
@@ -3737,11 +3717,11 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:25" ht="16.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:25" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:25" ht="11.65" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:25" ht="28.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:25" ht="28" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:25" ht="16.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="7" spans="1:25" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="8" spans="1:25" ht="11.65" hidden="1" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="1:25" ht="28.9" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="1:25" ht="27.6" x14ac:dyDescent="0.95">
       <c r="C10" s="14" t="s">
         <v>654</v>
       </c>
@@ -3768,7 +3748,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3793,17 +3773,17 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="66" t="s">
-        <v>696</v>
-      </c>
-      <c r="B12" s="74"/>
+    <row r="12" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="1">
+      <c r="A12" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="B12" s="72"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="69" t="s">
-        <v>714</v>
+      <c r="H12" s="67" t="s">
+        <v>706</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -3812,64 +3792,64 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="65" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="64"/>
-    </row>
-    <row r="13" spans="1:25" s="23" customFormat="1" ht="79" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P12" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="62"/>
+    </row>
+    <row r="13" spans="1:25" s="23" customFormat="1" ht="62.1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="16" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>697</v>
-      </c>
-      <c r="I13" s="67" t="s">
+        <v>687</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>689</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="J13" s="65" t="s">
         <v>698</v>
       </c>
-      <c r="J13" s="67" t="s">
-        <v>706</v>
-      </c>
-      <c r="K13" s="67" t="s">
-        <v>708</v>
-      </c>
-      <c r="L13" s="68" t="s">
-        <v>717</v>
-      </c>
-      <c r="M13" s="67" t="s">
-        <v>710</v>
-      </c>
-      <c r="N13" s="67" t="s">
-        <v>711</v>
-      </c>
-      <c r="O13" s="67" t="s">
-        <v>712</v>
+      <c r="K13" s="65" t="s">
+        <v>700</v>
+      </c>
+      <c r="L13" s="66" t="s">
+        <v>709</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>702</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>703</v>
+      </c>
+      <c r="O13" s="65" t="s">
+        <v>704</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>655</v>
@@ -3887,275 +3867,265 @@
         <v>659</v>
       </c>
       <c r="U13" s="20" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="V13" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="W13" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="X13" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="W13" s="21" t="s">
+      <c r="Y13" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="X13" s="19" t="s">
+    </row>
+    <row r="14" spans="1:25" ht="37.200000000000003" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="68" t="s">
+        <v>692</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>711</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>693</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>695</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>693</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>699</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>701</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>705</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="T14" s="25">
+        <v>1</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y14" s="29"/>
+    </row>
+    <row r="15" spans="1:25" s="37" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="25" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="38" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="70" t="s">
-        <v>700</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>719</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>701</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>701</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>702</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>703</v>
-      </c>
-      <c r="G14" s="71" t="s">
-        <v>701</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>704</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>705</v>
-      </c>
-      <c r="J14" s="72" t="s">
-        <v>707</v>
-      </c>
-      <c r="K14" s="72" t="s">
-        <v>709</v>
-      </c>
-      <c r="L14" s="72" t="s">
-        <v>701</v>
-      </c>
-      <c r="M14" s="72" t="s">
-        <v>704</v>
-      </c>
-      <c r="N14" s="72" t="s">
-        <v>701</v>
-      </c>
-      <c r="O14" s="72" t="s">
-        <v>713</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>668</v>
-      </c>
-      <c r="T14" s="25">
-        <v>1</v>
-      </c>
-      <c r="U14" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="V14" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="W14" s="24" t="s">
-        <v>669</v>
-      </c>
-      <c r="X14" s="28" t="s">
-        <v>670</v>
-      </c>
-      <c r="Y14" s="29"/>
-    </row>
-    <row r="15" spans="1:25" s="37" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="C15" s="24" t="s">
-        <v>664</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="25" t="s">
-        <v>665</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="32"/>
       <c r="P15" s="33" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="T15" s="34">
         <v>2</v>
       </c>
       <c r="U15" s="34"/>
       <c r="V15" s="35" t="s">
-        <v>675</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>675</v>
+        <v>680</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>680</v>
       </c>
       <c r="X15" s="34" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Y15" s="36"/>
     </row>
-    <row r="16" spans="1:25" s="37" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" s="37" customFormat="1" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="30" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="39"/>
       <c r="P16" s="33" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="T16" s="34">
         <v>3</v>
       </c>
       <c r="U16" s="34"/>
       <c r="V16" s="35" t="s">
-        <v>681</v>
-      </c>
-      <c r="W16" s="30" t="s">
-        <v>681</v>
+        <v>716</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>716</v>
       </c>
       <c r="X16" s="34" t="s">
-        <v>682</v>
+        <v>561</v>
       </c>
       <c r="Y16" s="36"/>
     </row>
-    <row r="17" spans="3:25" s="37" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:25" s="37" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
       <c r="O17" s="39"/>
       <c r="P17" s="33" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
       <c r="S17" s="34" t="s">
-        <v>685</v>
-      </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="35" t="s">
-        <v>686</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>686</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="T17" s="73"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="36"/>
     </row>
-    <row r="18" spans="3:25" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:25" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="30" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39" t="s">
-        <v>687</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="41" t="s">
-        <v>688</v>
+      <c r="P18" s="40" t="s">
+        <v>681</v>
       </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="34" t="s">
-        <v>689</v>
-      </c>
-      <c r="T18" s="38"/>
+        <v>682</v>
+      </c>
+      <c r="T18" s="74"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="42" t="s">
-        <v>690</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>690</v>
-      </c>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="36"/>
     </row>
-    <row r="19" spans="3:25" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="43"/>
+    <row r="19" spans="3:25" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="41"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="39"/>
-      <c r="P19" s="44" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="P19" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
@@ -4164,597 +4134,597 @@
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
     </row>
-    <row r="20" spans="3:25" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-    </row>
-    <row r="21" spans="3:25" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-    </row>
-    <row r="22" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-    </row>
-    <row r="23" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-    </row>
-    <row r="24" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-    </row>
-    <row r="25" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-    </row>
-    <row r="26" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-    </row>
-    <row r="27" spans="3:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-    </row>
-    <row r="28" spans="3:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-    </row>
-    <row r="29" spans="3:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-    </row>
-    <row r="30" spans="3:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-    </row>
-    <row r="31" spans="3:25" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-    </row>
-    <row r="32" spans="3:25" s="50" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-    </row>
-    <row r="33" spans="3:25" s="37" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-    </row>
-    <row r="34" spans="3:25" s="37" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-    </row>
-    <row r="35" spans="3:25" s="37" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-    </row>
-    <row r="36" spans="3:25" s="50" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-    </row>
-    <row r="37" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-    </row>
-    <row r="38" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-    </row>
-    <row r="39" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-    </row>
-    <row r="40" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-    </row>
-    <row r="41" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-    </row>
-    <row r="42" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="57"/>
-    </row>
-    <row r="43" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-    </row>
-    <row r="44" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-    </row>
-    <row r="45" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-    </row>
-    <row r="46" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-    </row>
-    <row r="47" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
-      <c r="Y47" s="57"/>
-    </row>
-    <row r="48" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-    </row>
-    <row r="49" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-    </row>
-    <row r="50" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.4">
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.4">
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.4">
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-    </row>
-    <row r="116" spans="16:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:25" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+    </row>
+    <row r="21" spans="3:25" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+    </row>
+    <row r="22" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+    </row>
+    <row r="23" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+    </row>
+    <row r="24" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+    </row>
+    <row r="25" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+    </row>
+    <row r="26" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+    </row>
+    <row r="27" spans="3:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+    </row>
+    <row r="28" spans="3:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+    </row>
+    <row r="29" spans="3:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+    </row>
+    <row r="30" spans="3:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+    </row>
+    <row r="31" spans="3:25" ht="14.2" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+    </row>
+    <row r="32" spans="3:25" s="48" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+    </row>
+    <row r="33" spans="3:25" s="37" customFormat="1" ht="14.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+    </row>
+    <row r="34" spans="3:25" s="37" customFormat="1" ht="14.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+    </row>
+    <row r="35" spans="3:25" s="37" customFormat="1" ht="14.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+    </row>
+    <row r="36" spans="3:25" s="48" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+    </row>
+    <row r="37" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+    </row>
+    <row r="38" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+    </row>
+    <row r="39" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+    </row>
+    <row r="40" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+    </row>
+    <row r="41" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+    </row>
+    <row r="42" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+    </row>
+    <row r="43" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+    </row>
+    <row r="44" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+    </row>
+    <row r="45" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+    </row>
+    <row r="46" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+    </row>
+    <row r="47" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+    </row>
+    <row r="48" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+    </row>
+    <row r="49" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+    </row>
+    <row r="50" spans="3:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.65">
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.65">
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.65">
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
+    </row>
+    <row r="116" spans="16:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.65">
       <c r="P116" s="11"/>
     </row>
   </sheetData>
@@ -4778,12 +4748,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -4860,7 +4830,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -4886,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -4912,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -4938,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -4964,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -4990,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -5016,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>26</v>
       </c>
@@ -5042,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>27</v>
       </c>
@@ -5068,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>28</v>
       </c>
@@ -5110,12 +5080,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -5192,7 +5162,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>29</v>
       </c>
@@ -5218,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -5244,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -5270,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>32</v>
       </c>
@@ -5296,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>33</v>
       </c>
@@ -5322,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -5348,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>35</v>
       </c>
@@ -5374,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>36</v>
       </c>
@@ -5400,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>37</v>
       </c>
@@ -5426,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>38</v>
       </c>
@@ -5452,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>39</v>
       </c>
@@ -5494,12 +5464,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -5576,7 +5546,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -5611,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>41</v>
       </c>
@@ -5646,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>42</v>
       </c>
@@ -5681,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43</v>
       </c>
@@ -5716,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>45</v>
       </c>
@@ -5754,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>46</v>
       </c>
@@ -5792,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>47</v>
       </c>
@@ -5827,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>48</v>
       </c>
@@ -5881,12 +5851,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -5963,7 +5933,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>49</v>
       </c>
@@ -5995,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -6027,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>51</v>
       </c>
@@ -6059,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>52</v>
       </c>
@@ -6091,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>53</v>
       </c>
@@ -6123,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>54</v>
       </c>
@@ -6155,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>55</v>
       </c>
@@ -6187,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -6219,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>57</v>
       </c>
@@ -6251,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>58</v>
       </c>
@@ -6299,12 +6269,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -6381,7 +6351,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>59</v>
       </c>
@@ -6416,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>60</v>
       </c>
@@ -6451,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>61</v>
       </c>
@@ -6502,12 +6472,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -6584,7 +6554,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>62</v>
       </c>
@@ -6619,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>63</v>
       </c>
@@ -6654,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>64</v>
       </c>
@@ -6705,12 +6675,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -6787,7 +6757,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>66</v>
       </c>
@@ -6822,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>67</v>
       </c>
@@ -6857,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>68</v>
       </c>
@@ -6904,22 +6874,22 @@
   </sheetPr>
   <dimension ref="A4:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.3671875" customWidth="1"/>
+    <col min="2" max="2" width="9.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>641</v>
       </c>
@@ -6930,7 +6900,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>643</v>
       </c>
@@ -6941,22 +6911,22 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>650</v>
       </c>
@@ -6976,18 +6946,18 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="1"/>
-    <col min="4" max="4" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="3" width="10.89453125" style="1"/>
+    <col min="4" max="4" width="17.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -7058,7 +7028,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -7068,7 +7038,7 @@
       <c r="C2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7084,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -7094,7 +7064,7 @@
       <c r="C3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7110,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -7120,7 +7090,7 @@
       <c r="C4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7136,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -7146,7 +7116,7 @@
       <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7162,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -7172,7 +7142,7 @@
       <c r="C6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -7191,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -7201,7 +7171,7 @@
       <c r="C7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -7217,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -7227,7 +7197,7 @@
       <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -7243,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -7253,7 +7223,7 @@
       <c r="C9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7269,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -7279,7 +7249,7 @@
       <c r="C10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -7295,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -7305,7 +7275,7 @@
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -7321,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -7331,7 +7301,7 @@
       <c r="C12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -7347,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -7357,7 +7327,7 @@
       <c r="C13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7373,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -7383,7 +7353,7 @@
       <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="71" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -7399,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -7409,7 +7379,7 @@
       <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="71" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -7425,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -7435,7 +7405,7 @@
       <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="71" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -7451,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -7461,7 +7431,7 @@
       <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="71" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -7480,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -7490,7 +7460,7 @@
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="71" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -7506,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -7516,7 +7486,7 @@
       <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="71" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -7532,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -7542,7 +7512,7 @@
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="71" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -7558,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -7568,7 +7538,7 @@
       <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="71" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -7584,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -7594,7 +7564,7 @@
       <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="71" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -7610,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -7620,7 +7590,7 @@
       <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -7639,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -7649,7 +7619,7 @@
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -7668,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -7678,7 +7648,7 @@
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="71" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -7697,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>29</v>
       </c>
@@ -7707,7 +7677,7 @@
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="71" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -7726,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -7736,7 +7706,7 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -7752,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -7762,7 +7732,7 @@
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="71" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -7778,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>32</v>
       </c>
@@ -7788,7 +7758,7 @@
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="71" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -7804,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -7814,7 +7784,7 @@
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="71" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -7833,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -7843,7 +7813,7 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -7872,17 +7842,17 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="1"/>
-    <col min="4" max="4" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="3" width="10.89453125" style="1"/>
+    <col min="4" max="4" width="16.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -7953,7 +7923,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>35</v>
       </c>
@@ -7963,7 +7933,7 @@
       <c r="C2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7979,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>36</v>
       </c>
@@ -7989,7 +7959,7 @@
       <c r="C3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>198</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -8005,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>37</v>
       </c>
@@ -8015,7 +7985,7 @@
       <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>194</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -8031,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>38</v>
       </c>
@@ -8041,7 +8011,7 @@
       <c r="C5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -8057,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>39</v>
       </c>
@@ -8067,7 +8037,7 @@
       <c r="C6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>186</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -8083,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>40</v>
       </c>
@@ -8093,7 +8063,7 @@
       <c r="C7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -8109,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>41</v>
       </c>
@@ -8119,7 +8089,7 @@
       <c r="C8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>180</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -8135,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>42</v>
       </c>
@@ -8145,7 +8115,7 @@
       <c r="C9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -8161,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43</v>
       </c>
@@ -8171,7 +8141,7 @@
       <c r="C10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>172</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -8187,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>45</v>
       </c>
@@ -8197,7 +8167,7 @@
       <c r="C11" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>168</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -8213,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>46</v>
       </c>
@@ -8223,7 +8193,7 @@
       <c r="C12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -8239,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>47</v>
       </c>
@@ -8249,7 +8219,7 @@
       <c r="C13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -8265,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>48</v>
       </c>
@@ -8275,7 +8245,7 @@
       <c r="C14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="71" t="s">
         <v>156</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -8291,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>49</v>
       </c>
@@ -8301,7 +8271,7 @@
       <c r="C15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="71" t="s">
         <v>151</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -8317,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>50</v>
       </c>
@@ -8327,7 +8297,7 @@
       <c r="C16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="71" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -8356,17 +8326,18 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="1"/>
+    <col min="1" max="3" width="10.89453125" style="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="5" max="5" width="22.3671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -8440,7 +8411,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>51</v>
       </c>
@@ -8450,7 +8421,7 @@
       <c r="C2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8466,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>52</v>
       </c>
@@ -8476,7 +8447,7 @@
       <c r="C3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>261</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -8492,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>53</v>
       </c>
@@ -8502,7 +8473,7 @@
       <c r="C4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>257</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -8518,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>54</v>
       </c>
@@ -8528,7 +8499,7 @@
       <c r="C5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>253</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -8544,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>55</v>
       </c>
@@ -8554,7 +8525,7 @@
       <c r="C6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>249</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -8570,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>56</v>
       </c>
@@ -8580,7 +8551,7 @@
       <c r="C7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>245</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -8599,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>57</v>
       </c>
@@ -8609,7 +8580,7 @@
       <c r="C8" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>240</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -8628,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>58</v>
       </c>
@@ -8638,7 +8609,7 @@
       <c r="C9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>235</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -8654,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>59</v>
       </c>
@@ -8664,7 +8635,7 @@
       <c r="C10" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>232</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -8680,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>60</v>
       </c>
@@ -8690,7 +8661,7 @@
       <c r="C11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>228</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -8706,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>61</v>
       </c>
@@ -8716,7 +8687,7 @@
       <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>225</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -8732,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>62</v>
       </c>
@@ -8742,7 +8713,7 @@
       <c r="C13" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>222</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -8761,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>63</v>
       </c>
@@ -8771,7 +8742,7 @@
       <c r="C14" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="71" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -8787,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>64</v>
       </c>
@@ -8797,7 +8768,7 @@
       <c r="C15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="71" t="s">
         <v>217</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -8816,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>66</v>
       </c>
@@ -8826,7 +8797,7 @@
       <c r="C16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="71" t="s">
         <v>212</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -8845,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>67</v>
       </c>
@@ -8855,7 +8826,7 @@
       <c r="C17" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="71" t="s">
         <v>207</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -8890,14 +8861,14 @@
       <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="1"/>
+    <col min="1" max="3" width="10.89453125" style="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="5" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -8968,7 +8939,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>68</v>
       </c>
@@ -8978,7 +8949,7 @@
       <c r="C2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9003,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>69</v>
       </c>
@@ -9013,7 +8984,7 @@
       <c r="C3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -9038,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>70</v>
       </c>
@@ -9048,7 +9019,7 @@
       <c r="C4" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -9073,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>71</v>
       </c>
@@ -9083,7 +9054,7 @@
       <c r="C5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>278</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -9108,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>72</v>
       </c>
@@ -9118,7 +9089,7 @@
       <c r="C6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>275</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -9143,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>73</v>
       </c>
@@ -9153,7 +9124,7 @@
       <c r="C7" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>268</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -9178,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>74</v>
       </c>
@@ -9188,7 +9159,7 @@
       <c r="C8" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -9229,14 +9200,14 @@
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="1"/>
-    <col min="4" max="4" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="3" width="10.89453125" style="1"/>
+    <col min="4" max="4" width="6.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -9307,7 +9278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>75</v>
       </c>
@@ -9317,7 +9288,7 @@
       <c r="C2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>339</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9345,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>76</v>
       </c>
@@ -9355,7 +9326,7 @@
       <c r="C3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>331</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -9383,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>77</v>
       </c>
@@ -9393,7 +9364,7 @@
       <c r="C4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>323</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -9421,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>78</v>
       </c>
@@ -9431,7 +9402,7 @@
       <c r="C5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>315</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -9459,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>79</v>
       </c>
@@ -9469,7 +9440,7 @@
       <c r="C6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -9497,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>80</v>
       </c>
@@ -9507,7 +9478,7 @@
       <c r="C7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>301</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -9548,14 +9519,14 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="1"/>
-    <col min="4" max="4" width="16.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="3" width="10.89453125" style="1"/>
+    <col min="4" max="4" width="16.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -9626,7 +9597,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>81</v>
       </c>
@@ -9636,7 +9607,7 @@
       <c r="C2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>380</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9655,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>82</v>
       </c>
@@ -9665,7 +9636,7 @@
       <c r="C3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>375</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -9684,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>83</v>
       </c>
@@ -9694,7 +9665,7 @@
       <c r="C4" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>370</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -9713,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>84</v>
       </c>
@@ -9723,7 +9694,7 @@
       <c r="C5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>365</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -9742,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>85</v>
       </c>
@@ -9752,7 +9723,7 @@
       <c r="C6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>359</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -9771,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>87</v>
       </c>
@@ -9781,7 +9752,7 @@
       <c r="C7" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>355</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -9800,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>88</v>
       </c>
@@ -9810,7 +9781,7 @@
       <c r="C8" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>352</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -9829,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>89</v>
       </c>
@@ -9839,7 +9810,7 @@
       <c r="C9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>347</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -9858,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -9868,7 +9839,7 @@
       <c r="C10" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>344</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -9903,12 +9874,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -9985,7 +9956,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -10011,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -10037,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -10063,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -10089,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -10115,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -10141,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -10167,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -10193,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -10219,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -10245,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -10271,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -10297,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -10323,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -10349,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>18</v>
       </c>
